--- a/data/dataframe/10037.xlsx
+++ b/data/dataframe/10037.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0BB9C5-B463-244E-B682-6FA216D3F5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>col</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="18">
   <si>
     <t>X</t>
   </si>
@@ -66,28 +72,20 @@
   <si>
     <t>NC</t>
   </si>
+  <si>
+    <t>exp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -95,21 +93,31 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -226,62 +234,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -290,25 +275,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff7f7f7f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -510,7 +555,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -529,7 +574,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -559,7 +604,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -585,7 +630,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -611,7 +656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -637,7 +682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -663,7 +708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -689,7 +734,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -715,7 +760,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -741,7 +786,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -767,7 +812,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -780,9 +825,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -799,7 +850,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -818,7 +869,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +895,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -870,7 +921,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -922,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -974,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1000,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +1077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,7 +1103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1065,9 +1116,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1081,7 +1138,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1100,7 +1157,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,7 +1187,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1156,7 +1213,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1182,7 +1239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1234,7 +1291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1260,7 +1317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1286,7 +1343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1312,7 +1369,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1338,7 +1395,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1351,78 +1408,88 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.17188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.17188" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="4">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="4">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="5">
-        <v>3e-05</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="C2" s="5">
         <v>2.5</v>
@@ -1430,17 +1497,17 @@
       <c r="D2" s="6">
         <v>318</v>
       </c>
-      <c r="E2" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s" s="7">
-        <v>17</v>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="8">
         <v>1</v>
@@ -1458,12 +1525,12 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>13</v>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>6.999999999999999e-05</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="C3" s="5">
         <v>2.5</v>
@@ -1471,17 +1538,17 @@
       <c r="D3" s="6">
         <v>318</v>
       </c>
-      <c r="E3" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="7">
-        <v>17</v>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="8">
         <v>1</v>
@@ -1496,15 +1563,15 @@
         <v>6.7</v>
       </c>
       <c r="M3" s="5">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>13</v>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="5">
-        <v>0.00013</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="C4" s="5">
         <v>2.5</v>
@@ -1512,23 +1579,23 @@
       <c r="D4" s="6">
         <v>318</v>
       </c>
-      <c r="E4" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s" s="7">
-        <v>17</v>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="8">
         <v>1</v>
       </c>
       <c r="J4" s="5">
-        <v>0.0911</v>
+        <v>9.11E-2</v>
       </c>
       <c r="K4" s="5">
         <v>7.1</v>
@@ -1540,12 +1607,12 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>13</v>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="5">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="C5" s="5">
         <v>2.5</v>
@@ -1553,23 +1620,23 @@
       <c r="D5" s="6">
         <v>318</v>
       </c>
-      <c r="E5" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s" s="7">
-        <v>17</v>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
       </c>
       <c r="J5" s="9">
-        <v>0.0917</v>
+        <v>9.1700000000000004E-2</v>
       </c>
       <c r="K5" s="5">
         <v>4.8</v>
@@ -1581,12 +1648,12 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>13</v>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="5">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="C6" s="5">
         <v>2.5</v>
@@ -1594,40 +1661,40 @@
       <c r="D6" s="6">
         <v>318</v>
       </c>
-      <c r="E6" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s" s="7">
-        <v>17</v>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I6" s="10">
         <v>1</v>
       </c>
       <c r="J6" s="11">
-        <v>0.0544</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="K6" s="12">
         <v>5.3</v>
       </c>
       <c r="L6" s="5">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M6" s="5">
         <v>6.9</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>13</v>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="5">
-        <v>6.999999999999999e-05</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -1635,17 +1702,17 @@
       <c r="D7" s="6">
         <v>318</v>
       </c>
-      <c r="E7" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s" s="7">
-        <v>17</v>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="8">
         <v>1</v>
@@ -1660,15 +1727,15 @@
         <v>9.6</v>
       </c>
       <c r="M7" s="5">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="5">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="C8" s="5">
         <v>5</v>
@@ -1676,23 +1743,23 @@
       <c r="D8" s="6">
         <v>318</v>
       </c>
-      <c r="E8" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s" s="7">
-        <v>17</v>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I8" s="8">
         <v>1</v>
       </c>
       <c r="J8" s="5">
-        <v>0.1539</v>
+        <v>0.15390000000000001</v>
       </c>
       <c r="K8" s="5">
         <v>5.3</v>
@@ -1704,12 +1771,12 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>13</v>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="5">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
@@ -1717,17 +1784,17 @@
       <c r="D9" s="6">
         <v>318</v>
       </c>
-      <c r="E9" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s" s="7">
-        <v>17</v>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I9" s="8">
         <v>1</v>
@@ -1745,12 +1812,12 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>13</v>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
@@ -1758,40 +1825,40 @@
       <c r="D10" s="6">
         <v>318</v>
       </c>
-      <c r="E10" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s" s="7">
-        <v>17</v>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
       </c>
       <c r="J10" s="5">
-        <v>0.0776</v>
+        <v>7.7600000000000002E-2</v>
       </c>
       <c r="K10" s="5">
         <v>4.8</v>
       </c>
       <c r="L10" s="5">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M10" s="5">
         <v>5.6</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>13</v>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="5">
-        <v>0.00013</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="C11" s="5">
         <v>7</v>
@@ -1799,23 +1866,23 @@
       <c r="D11" s="6">
         <v>318</v>
       </c>
-      <c r="E11" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s" s="7">
-        <v>17</v>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
       </c>
       <c r="J11" s="5">
-        <v>0.2249</v>
+        <v>0.22489999999999999</v>
       </c>
       <c r="K11" s="5">
         <v>4.3</v>
@@ -1827,12 +1894,12 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>13</v>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="C12" s="5">
         <v>7</v>
@@ -1840,23 +1907,23 @@
       <c r="D12" s="6">
         <v>318</v>
       </c>
-      <c r="E12" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s" s="7">
-        <v>17</v>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
       </c>
       <c r="J12" s="5">
-        <v>0.2023</v>
+        <v>0.20230000000000001</v>
       </c>
       <c r="K12" s="5">
         <v>6.8</v>
@@ -1868,12 +1935,12 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>13</v>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
@@ -1881,17 +1948,17 @@
       <c r="D13" s="6">
         <v>318</v>
       </c>
-      <c r="E13" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s" s="7">
-        <v>17</v>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I13" s="8">
         <v>1</v>
@@ -1900,7 +1967,7 @@
         <v>0.1767</v>
       </c>
       <c r="K13" s="5">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L13" s="5">
         <v>2.4</v>
@@ -1909,12 +1976,12 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>13</v>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C14" s="5">
         <v>7</v>
@@ -1922,23 +1989,23 @@
       <c r="D14" s="6">
         <v>318</v>
       </c>
-      <c r="E14" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s" s="7">
-        <v>17</v>
+      <c r="E14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I14" s="8">
         <v>1</v>
       </c>
       <c r="J14" s="5">
-        <v>0.1616</v>
+        <v>0.16159999999999999</v>
       </c>
       <c r="K14" s="5">
         <v>2.5</v>
@@ -1950,12 +2017,12 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>13</v>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B15" s="5">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="C15" s="5">
         <v>7</v>
@@ -1963,40 +2030,40 @@
       <c r="D15" s="6">
         <v>318</v>
       </c>
-      <c r="E15" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s" s="7">
-        <v>17</v>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I15" s="8">
         <v>1</v>
       </c>
       <c r="J15" s="5">
-        <v>0.1199</v>
+        <v>0.11990000000000001</v>
       </c>
       <c r="K15" s="5">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L15" s="5">
         <v>4</v>
       </c>
       <c r="M15" s="5">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <v>13</v>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="5">
-        <v>0.0016</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="C16" s="5">
         <v>7</v>
@@ -2004,26 +2071,26 @@
       <c r="D16" s="6">
         <v>318</v>
       </c>
-      <c r="E16" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s" s="7">
-        <v>17</v>
+      <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I16" s="8">
         <v>1</v>
       </c>
       <c r="J16" s="14">
-        <v>0.0902</v>
+        <v>9.0200000000000002E-2</v>
       </c>
       <c r="K16" s="5">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L16" s="5">
         <v>3.9</v>
@@ -2032,12 +2099,12 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>13</v>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B17" s="5">
-        <v>0.00022</v>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="C17" s="5">
         <v>12</v>
@@ -2045,26 +2112,26 @@
       <c r="D17" s="6">
         <v>318</v>
       </c>
-      <c r="E17" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s" s="7">
-        <v>17</v>
+      <c r="E17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I17" s="8">
         <v>1</v>
       </c>
       <c r="J17" s="14">
-        <v>0.3161</v>
+        <v>0.31609999999999999</v>
       </c>
       <c r="K17" s="14">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L17" s="14">
         <v>2.9</v>
@@ -2073,12 +2140,12 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <v>13</v>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B18" s="5">
-        <v>0.00032</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="C18" s="5">
         <v>12</v>
@@ -2086,23 +2153,23 @@
       <c r="D18" s="6">
         <v>318</v>
       </c>
-      <c r="E18" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s" s="7">
-        <v>17</v>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I18" s="8">
         <v>1</v>
       </c>
       <c r="J18" s="14">
-        <v>0.2904</v>
+        <v>0.29039999999999999</v>
       </c>
       <c r="K18" s="5">
         <v>2.9</v>
@@ -2114,12 +2181,12 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <v>13</v>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B19" s="5">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C19" s="5">
         <v>12</v>
@@ -2127,23 +2194,23 @@
       <c r="D19" s="6">
         <v>318</v>
       </c>
-      <c r="E19" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s" s="7">
-        <v>17</v>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I19" s="8">
         <v>1</v>
       </c>
       <c r="J19" s="5">
-        <v>0.241</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="K19" s="5">
         <v>2.4</v>
@@ -2152,15 +2219,15 @@
         <v>1.3</v>
       </c>
       <c r="M19" s="5">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <v>13</v>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B20" s="5">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="C20" s="5">
         <v>12</v>
@@ -2168,23 +2235,23 @@
       <c r="D20" s="6">
         <v>318</v>
       </c>
-      <c r="E20" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s" s="7">
-        <v>17</v>
+      <c r="E20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I20" s="8">
         <v>1</v>
       </c>
       <c r="J20" s="5">
-        <v>0.1813</v>
+        <v>0.18129999999999999</v>
       </c>
       <c r="K20" s="5">
         <v>2.1</v>
@@ -2196,12 +2263,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <v>13</v>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B21" s="5">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="C21" s="5">
         <v>12</v>
@@ -2209,23 +2276,23 @@
       <c r="D21" s="6">
         <v>318</v>
       </c>
-      <c r="E21" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s" s="7">
-        <v>17</v>
+      <c r="E21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I21" s="8">
         <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>0.1476</v>
+        <v>0.14760000000000001</v>
       </c>
       <c r="K21" s="14">
         <v>3.2</v>
@@ -2234,15 +2301,15 @@
         <v>1.5</v>
       </c>
       <c r="M21" s="14">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <v>13</v>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B22" s="5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C22" s="5">
         <v>12</v>
@@ -2250,40 +2317,40 @@
       <c r="D22" s="6">
         <v>318</v>
       </c>
-      <c r="E22" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s" s="7">
-        <v>17</v>
+      <c r="E22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I22" s="8">
         <v>1</v>
       </c>
       <c r="J22" s="5">
-        <v>0.101</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="K22" s="5">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L22" s="5">
         <v>4</v>
       </c>
       <c r="M22" s="5">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="2">
-        <v>13</v>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B23" s="5">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="C23" s="5">
         <v>18</v>
@@ -2291,23 +2358,23 @@
       <c r="D23" s="6">
         <v>318</v>
       </c>
-      <c r="E23" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s" s="7">
-        <v>17</v>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
       </c>
       <c r="J23" s="5">
-        <v>0.3198</v>
+        <v>0.31979999999999997</v>
       </c>
       <c r="K23" s="5">
         <v>5.2</v>
@@ -2319,12 +2386,12 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="2">
-        <v>13</v>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B24" s="5">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C24" s="5">
         <v>18</v>
@@ -2332,23 +2399,23 @@
       <c r="D24" s="6">
         <v>318</v>
       </c>
-      <c r="E24" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s" s="7">
-        <v>17</v>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
       </c>
       <c r="J24" s="5">
-        <v>0.2905</v>
+        <v>0.29049999999999998</v>
       </c>
       <c r="K24" s="5">
         <v>2.6</v>
@@ -2360,12 +2427,12 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="2">
-        <v>13</v>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B25" s="5">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="C25" s="5">
         <v>18</v>
@@ -2373,26 +2440,26 @@
       <c r="D25" s="6">
         <v>318</v>
       </c>
-      <c r="E25" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H25" t="s" s="7">
-        <v>17</v>
+      <c r="E25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I25" s="8">
         <v>1</v>
       </c>
       <c r="J25" s="5">
-        <v>0.2554</v>
+        <v>0.25540000000000002</v>
       </c>
       <c r="K25" s="5">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L25" s="5">
         <v>1.2</v>
@@ -2401,12 +2468,12 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <v>13</v>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B26" s="5">
-        <v>0.00135</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="C26" s="5">
         <v>18</v>
@@ -2414,17 +2481,17 @@
       <c r="D26" s="6">
         <v>318</v>
       </c>
-      <c r="E26" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s" s="7">
-        <v>17</v>
+      <c r="E26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I26" s="8">
         <v>1</v>
@@ -2436,18 +2503,18 @@
         <v>2</v>
       </c>
       <c r="L26" s="5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M26" s="5">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="2">
-        <v>13</v>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B27" s="5">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="C27" s="5">
         <v>18</v>
@@ -2455,23 +2522,23 @@
       <c r="D27" s="6">
         <v>318</v>
       </c>
-      <c r="E27" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s" s="7">
-        <v>17</v>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I27" s="8">
         <v>1</v>
       </c>
       <c r="J27" s="5">
-        <v>0.163</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="K27" s="5">
         <v>1.9</v>
@@ -2483,12 +2550,12 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="2">
-        <v>13</v>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B28" s="5">
-        <v>0.0045</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="C28" s="5">
         <v>18</v>
@@ -2496,17 +2563,17 @@
       <c r="D28" s="6">
         <v>318</v>
       </c>
-      <c r="E28" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s" s="7">
-        <v>17</v>
+      <c r="E28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I28" s="8">
         <v>1</v>
@@ -2518,18 +2585,18 @@
         <v>5.5</v>
       </c>
       <c r="L28" s="5">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M28" s="5">
         <v>5.4</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="2">
-        <v>13</v>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B29" s="5">
-        <v>0.0005999999999999999</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="C29" s="5">
         <v>32</v>
@@ -2537,40 +2604,40 @@
       <c r="D29" s="6">
         <v>318</v>
       </c>
-      <c r="E29" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H29" t="s" s="7">
-        <v>17</v>
+      <c r="E29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I29" s="8">
         <v>1</v>
       </c>
       <c r="J29" s="5">
-        <v>0.3885</v>
+        <v>0.38850000000000001</v>
       </c>
       <c r="K29" s="5">
         <v>8.5</v>
       </c>
       <c r="L29" s="5">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="M29" s="5">
         <v>5.8</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="2">
-        <v>13</v>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B30" s="5">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="C30" s="5">
         <v>32</v>
@@ -2578,40 +2645,40 @@
       <c r="D30" s="6">
         <v>318</v>
       </c>
-      <c r="E30" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H30" t="s" s="7">
-        <v>17</v>
+      <c r="E30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I30" s="8">
         <v>1</v>
       </c>
       <c r="J30" s="5">
-        <v>0.3756</v>
+        <v>0.37559999999999999</v>
       </c>
       <c r="K30" s="5">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L30" s="5">
         <v>1.4</v>
       </c>
       <c r="M30" s="5">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="2">
-        <v>13</v>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B31" s="5">
-        <v>0.0014</v>
+        <v>1.4E-3</v>
       </c>
       <c r="C31" s="5">
         <v>32</v>
@@ -2619,40 +2686,40 @@
       <c r="D31" s="6">
         <v>318</v>
       </c>
-      <c r="E31" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H31" t="s" s="7">
-        <v>17</v>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I31" s="8">
         <v>1</v>
       </c>
       <c r="J31" s="5">
-        <v>0.2807</v>
+        <v>0.28070000000000001</v>
       </c>
       <c r="K31" s="5">
         <v>2</v>
       </c>
       <c r="L31" s="5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M31" s="5">
         <v>3.4</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="2">
-        <v>13</v>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B32" s="5">
-        <v>0.0024</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="C32" s="5">
         <v>32</v>
@@ -2660,17 +2727,17 @@
       <c r="D32" s="6">
         <v>318</v>
       </c>
-      <c r="E32" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H32" t="s" s="7">
-        <v>17</v>
+      <c r="E32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I32" s="8">
         <v>1</v>
@@ -2679,7 +2746,7 @@
         <v>0.219</v>
       </c>
       <c r="K32" s="5">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L32" s="5">
         <v>1.4</v>
@@ -2688,12 +2755,12 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="s" s="2">
-        <v>13</v>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B33" s="5">
-        <v>0.0032</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="C33" s="5">
         <v>32</v>
@@ -2701,23 +2768,23 @@
       <c r="D33" s="6">
         <v>318</v>
       </c>
-      <c r="E33" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H33" t="s" s="7">
-        <v>17</v>
+      <c r="E33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I33" s="8">
         <v>1</v>
       </c>
       <c r="J33" s="5">
-        <v>0.2015</v>
+        <v>0.20150000000000001</v>
       </c>
       <c r="K33" s="5">
         <v>3.6</v>
@@ -2729,12 +2796,12 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="2">
-        <v>13</v>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B34" s="5">
-        <v>0.0055</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="C34" s="5">
         <v>32</v>
@@ -2742,23 +2809,23 @@
       <c r="D34" s="6">
         <v>318</v>
       </c>
-      <c r="E34" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H34" t="s" s="7">
-        <v>17</v>
+      <c r="E34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I34" s="8">
         <v>1</v>
       </c>
       <c r="J34" s="5">
-        <v>0.1553</v>
+        <v>0.15529999999999999</v>
       </c>
       <c r="K34" s="5">
         <v>4.2</v>
@@ -2767,15 +2834,15 @@
         <v>3</v>
       </c>
       <c r="M34" s="5">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="s" s="2">
-        <v>13</v>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B35" s="5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C35" s="5">
         <v>32</v>
@@ -2783,26 +2850,26 @@
       <c r="D35" s="6">
         <v>318</v>
       </c>
-      <c r="E35" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H35" t="s" s="7">
-        <v>17</v>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I35" s="8">
         <v>1</v>
       </c>
       <c r="J35" s="5">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="K35" s="5">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L35" s="5">
         <v>5.4</v>
@@ -2811,12 +2878,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="s" s="2">
-        <v>13</v>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B36" s="5">
-        <v>0.0014</v>
+        <v>1.4E-3</v>
       </c>
       <c r="C36" s="5">
         <v>60</v>
@@ -2824,23 +2891,23 @@
       <c r="D36" s="6">
         <v>318</v>
       </c>
-      <c r="E36" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H36" t="s" s="7">
-        <v>17</v>
+      <c r="E36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I36" s="8">
         <v>1</v>
       </c>
       <c r="J36" s="5">
-        <v>0.3254</v>
+        <v>0.32540000000000002</v>
       </c>
       <c r="K36" s="5">
         <v>3.2</v>
@@ -2852,12 +2919,12 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="s" s="2">
-        <v>13</v>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B37" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="C37" s="5">
         <v>60</v>
@@ -2865,40 +2932,40 @@
       <c r="D37" s="6">
         <v>318</v>
       </c>
-      <c r="E37" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s" s="7">
-        <v>17</v>
+      <c r="E37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I37" s="8">
         <v>1</v>
       </c>
       <c r="J37" s="5">
-        <v>0.3289</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="K37" s="5">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L37" s="5">
         <v>1.2</v>
       </c>
       <c r="M37" s="5">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="38" ht="17" customHeight="1">
-      <c r="A38" t="s" s="2">
-        <v>13</v>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B38" s="5">
-        <v>0.0032</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="C38" s="5">
         <v>60</v>
@@ -2906,17 +2973,17 @@
       <c r="D38" s="6">
         <v>318</v>
       </c>
-      <c r="E38" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s" s="7">
-        <v>17</v>
+      <c r="E38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I38" s="8">
         <v>1</v>
@@ -2925,7 +2992,7 @@
         <v>0.2576</v>
       </c>
       <c r="K38" s="5">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L38" s="15">
         <v>1.2</v>
@@ -2934,12 +3001,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="s" s="2">
-        <v>13</v>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B39" s="5">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C39" s="5">
         <v>60</v>
@@ -2947,17 +3014,17 @@
       <c r="D39" s="6">
         <v>318</v>
       </c>
-      <c r="E39" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H39" t="s" s="7">
-        <v>17</v>
+      <c r="E39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I39" s="8">
         <v>1</v>
@@ -2966,21 +3033,21 @@
         <v>0.1925</v>
       </c>
       <c r="K39" s="5">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L39" s="5">
         <v>1.6</v>
       </c>
       <c r="M39" s="5">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="2">
-        <v>13</v>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B40" s="5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C40" s="5">
         <v>60</v>
@@ -2988,23 +3055,23 @@
       <c r="D40" s="6">
         <v>318</v>
       </c>
-      <c r="E40" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H40" t="s" s="7">
-        <v>17</v>
+      <c r="E40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I40" s="8">
         <v>1</v>
       </c>
       <c r="J40" s="5">
-        <v>0.1596</v>
+        <v>0.15959999999999999</v>
       </c>
       <c r="K40" s="5">
         <v>4.8</v>
@@ -3016,12 +3083,12 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="s" s="2">
-        <v>13</v>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B41" s="5">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C41" s="5">
         <v>60</v>
@@ -3029,23 +3096,23 @@
       <c r="D41" s="6">
         <v>318</v>
       </c>
-      <c r="E41" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H41" t="s" s="7">
-        <v>17</v>
+      <c r="E41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I41" s="8">
         <v>1</v>
       </c>
       <c r="J41" s="5">
-        <v>0.0946</v>
+        <v>9.4600000000000004E-2</v>
       </c>
       <c r="K41" s="5">
         <v>8.1</v>
@@ -3054,15 +3121,15 @@
         <v>6.5</v>
       </c>
       <c r="M41" s="5">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="2">
-        <v>13</v>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B42" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="C42" s="5">
         <v>120</v>
@@ -3070,23 +3137,23 @@
       <c r="D42" s="6">
         <v>318</v>
       </c>
-      <c r="E42" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H42" t="s" s="7">
-        <v>17</v>
+      <c r="E42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I42" s="8">
         <v>1</v>
       </c>
       <c r="J42" s="5">
-        <v>0.3766</v>
+        <v>0.37659999999999999</v>
       </c>
       <c r="K42" s="5">
         <v>3.3</v>
@@ -3098,12 +3165,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="s" s="2">
-        <v>13</v>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B43" s="5">
-        <v>0.0032</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="C43" s="5">
         <v>120</v>
@@ -3111,23 +3178,23 @@
       <c r="D43" s="6">
         <v>318</v>
       </c>
-      <c r="E43" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H43" t="s" s="7">
-        <v>17</v>
+      <c r="E43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I43" s="8">
         <v>1</v>
       </c>
       <c r="J43" s="5">
-        <v>0.2274</v>
+        <v>0.22739999999999999</v>
       </c>
       <c r="K43" s="5">
         <v>14.6</v>
@@ -3139,12 +3206,12 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="2">
-        <v>13</v>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B44" s="5">
-        <v>0.0055</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="C44" s="5">
         <v>120</v>
@@ -3152,23 +3219,23 @@
       <c r="D44" s="6">
         <v>318</v>
       </c>
-      <c r="E44" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F44" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H44" t="s" s="7">
-        <v>17</v>
+      <c r="E44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I44" s="8">
         <v>1</v>
       </c>
       <c r="J44" s="5">
-        <v>0.2173</v>
+        <v>0.21729999999999999</v>
       </c>
       <c r="K44" s="5">
         <v>3.3</v>
@@ -3180,9 +3247,9 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="s" s="2">
-        <v>13</v>
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B45" s="5">
         <v>0.01</v>
@@ -3193,40 +3260,40 @@
       <c r="D45" s="6">
         <v>318</v>
       </c>
-      <c r="E45" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H45" t="s" s="7">
-        <v>17</v>
+      <c r="E45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I45" s="8">
         <v>1</v>
       </c>
       <c r="J45" s="5">
-        <v>0.1519</v>
+        <v>0.15190000000000001</v>
       </c>
       <c r="K45" s="5">
         <v>3.9</v>
       </c>
       <c r="L45" s="5">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M45" s="5">
         <v>5.2</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="s" s="2">
-        <v>13</v>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B46" s="5">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C46" s="5">
         <v>120</v>
@@ -3234,23 +3301,23 @@
       <c r="D46" s="6">
         <v>318</v>
       </c>
-      <c r="E46" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F46" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H46" t="s" s="7">
-        <v>17</v>
+      <c r="E46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I46" s="8">
         <v>1</v>
       </c>
       <c r="J46" s="5">
-        <v>0.0702</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="K46" s="5">
         <v>13.6</v>
@@ -3259,15 +3326,15 @@
         <v>12.6</v>
       </c>
       <c r="M46" s="5">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="s" s="2">
-        <v>13</v>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B47" s="5">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C47" s="5">
         <v>200</v>
@@ -3275,17 +3342,17 @@
       <c r="D47" s="6">
         <v>318</v>
       </c>
-      <c r="E47" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H47" t="s" s="7">
-        <v>17</v>
+      <c r="E47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I47" s="8">
         <v>1</v>
@@ -3303,12 +3370,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="s" s="2">
-        <v>13</v>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B48" s="5">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C48" s="5">
         <v>200</v>
@@ -3316,17 +3383,17 @@
       <c r="D48" s="6">
         <v>318</v>
       </c>
-      <c r="E48" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H48" t="s" s="7">
-        <v>17</v>
+      <c r="E48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I48" s="8">
         <v>1</v>
@@ -3338,15 +3405,15 @@
         <v>3.4</v>
       </c>
       <c r="L48" s="5">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M48" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="s" s="2">
-        <v>13</v>
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B49" s="5">
         <v>0.01</v>
@@ -3357,17 +3424,17 @@
       <c r="D49" s="6">
         <v>318</v>
       </c>
-      <c r="E49" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F49" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H49" t="s" s="7">
-        <v>17</v>
+      <c r="E49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I49" s="8">
         <v>1</v>
@@ -3376,7 +3443,7 @@
         <v>0.223</v>
       </c>
       <c r="K49" s="5">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L49" s="5">
         <v>3</v>
@@ -3385,12 +3452,12 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" t="s" s="2">
-        <v>13</v>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B50" s="5">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C50" s="5">
         <v>350</v>
@@ -3398,17 +3465,17 @@
       <c r="D50" s="6">
         <v>318</v>
       </c>
-      <c r="E50" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F50" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H50" t="s" s="7">
-        <v>17</v>
+      <c r="E50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I50" s="8">
         <v>1</v>
@@ -3426,12 +3493,12 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="s" s="2">
-        <v>13</v>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B51" s="5">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C51" s="5">
         <v>650</v>
@@ -3439,17 +3506,17 @@
       <c r="D51" s="6">
         <v>318</v>
       </c>
-      <c r="E51" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H51" t="s" s="7">
-        <v>17</v>
+      <c r="E51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I51" s="8">
         <v>1</v>
@@ -3467,12 +3534,12 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" t="s" s="2">
-        <v>13</v>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B52" s="5">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C52" s="5">
         <v>650</v>
@@ -3480,23 +3547,23 @@
       <c r="D52" s="6">
         <v>318</v>
       </c>
-      <c r="E52" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H52" t="s" s="7">
-        <v>17</v>
+      <c r="E52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I52" s="8">
         <v>1</v>
       </c>
       <c r="J52" s="5">
-        <v>0.0885</v>
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="K52" s="5">
         <v>7.8</v>
@@ -3508,9 +3575,9 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" t="s" s="2">
-        <v>13</v>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B53" s="5">
         <v>0.05</v>
@@ -3521,23 +3588,23 @@
       <c r="D53" s="6">
         <v>318</v>
       </c>
-      <c r="E53" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F53" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H53" t="s" s="7">
-        <v>17</v>
+      <c r="E53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I53" s="8">
         <v>1</v>
       </c>
       <c r="J53" s="5">
-        <v>0.0603</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="K53" s="16">
         <v>16</v>
@@ -3550,8 +3617,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/dataframe/10037.xlsx
+++ b/data/dataframe/10037.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0BB9C5-B463-244E-B682-6FA216D3F5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E615C7-C4FA-B146-894E-C5358C3959C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="format" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
